--- a/src/users.xlsx
+++ b/src/users.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\爸爸\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\爸爸\IdeaProjects\cmdShop\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5CBBB35-EBB5-4266-A355-70E81B8652AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1891A11A-2082-4958-BC54-4D9675BA16A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -98,8 +98,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -383,7 +384,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -410,7 +411,7 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>123456</v>
       </c>
       <c r="C2" t="s">
@@ -424,7 +425,7 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>12345</v>
       </c>
       <c r="C3" t="s">

--- a/src/users.xlsx
+++ b/src/users.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\爸爸\IdeaProjects\cmdShop\src\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1891A11A-2082-4958-BC54-4D9675BA16A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>username</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,26 +37,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>shiyanhong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dashuaibi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>桂林电子科技大学</t>
   </si>
   <si>
     <t>桂林电子科技大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>syh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hhh</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,7 +159,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -196,7 +194,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -373,27 +371,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="17.109375" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.125" customWidth="1"/>
+    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -407,29 +405,29 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1">
         <v>123456</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>13517873126</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1">
-        <v>12345</v>
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D3">
         <v>13517873125</v>

--- a/src/users.xlsx
+++ b/src/users.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>username</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,6 +53,10 @@
   </si>
   <si>
     <t>hhh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -371,7 +375,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -382,7 +386,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -409,8 +413,8 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1">
-        <v>123456</v>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
